--- a/data/trans_bre/P12A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,08%</t>
+          <t>14,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64,61%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 12,71</t>
+          <t>-3,4; 18,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 12,84</t>
+          <t>-4,1; 10,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 6,31</t>
+          <t>-7,51; 6,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 4,19</t>
+          <t>-0,2; 20,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 99,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 81,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 31,55</t>
+          <t>-15,97; 163,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 16,23</t>
+          <t>-16,94; 64,44</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,78; 35,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 206,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,13%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>-20,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-14,98%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,24</t>
+          <t>-9,52; 3,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,63</t>
+          <t>-8,63; 1,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,83</t>
+          <t>-7,62; 2,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 2,88</t>
+          <t>-6,77; 8,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 37,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 14,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 16,35</t>
+          <t>-44,48; 28,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 16,06</t>
+          <t>-43,84; 13,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-38,5; 20,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,67; 66,97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-18,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,9</t>
+          <t>-2,85; 6,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 4,37</t>
+          <t>-3,62; 4,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,62</t>
+          <t>-1,84; 5,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 6,4</t>
+          <t>-7,78; 2,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 116,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 67,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 90,19</t>
+          <t>-26,97; 122,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 68,26</t>
+          <t>-32,95; 60,74</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-19,5; 83,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-49,98; 29,27</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,4%</t>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 4,89</t>
+          <t>-0,96; 8,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,39</t>
+          <t>-3,94; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,86</t>
+          <t>-1,54; 12,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 41,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 16,63</t>
+          <t>-7,78; 91,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 9,33</t>
+          <t>-23,47; 62,83</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 104,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,2%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 5,52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 2,59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 2,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 6,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 47,86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,3; 20,23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,78; 20,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 51,91</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,1</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>44,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,38%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>64,61%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>5.823566729513913</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.63129134437847</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3864570880790036</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.71108039198315</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.3083503405046461</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1334432271686938</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.01525378189258084</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6856208226423279</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 18,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 10,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; 6,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 20,24</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,97; 163,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 64,44</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-24,78; 35,18</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 206,93</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.871281689888094</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.333673019518448</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.968228678454747</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.369900070956457</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.2457589666061291</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1784762344127588</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2660494630816101</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.02462214952500775</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.40752027365602</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.826762553127823</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.516062892390738</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.06045608803186</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.314936192713801</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6183749189954313</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.318030800401146</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.085130393863934</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-14,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-20,06%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-14,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,97%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,52; 3,8</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 1,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 2,72</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 8,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-44,48; 28,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-43,84; 13,03</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-38,5; 20,48</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-29,67; 66,97</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-2.491260571202714</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.679360624161525</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.268597032008959</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.017306328882641</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.1536463981599901</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1744408253724257</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1421363064077657</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1806423564514271</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>25,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>23,23%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-18,67%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.0485339383065</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.895145606198192</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.533076729791745</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.654822880665741</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4501746716795109</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4177009317777011</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3806955479742619</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2946228596149081</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 6,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 4,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 5,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 2,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-26,97; 122,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,95; 60,74</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-19,5; 83,01</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-49,98; 29,27</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.455784010588875</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.041063318240913</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.52074805471525</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.99885607893707</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.2698128092095707</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1563168682887632</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1933215798043421</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7039053706653493</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>34,63%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>32,83%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.09966655494617</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3403523594449176</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.808309271838444</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.559451519647389</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1263674945611067</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.03602235256057579</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2246983780454638</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2010064075374978</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 8,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 7,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 12,11</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 91,08</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-23,47; 62,83</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 104,57</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.903211205489357</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.826564451399734</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.94769973909551</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.059819386748543</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4035927393881448</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3320651866400065</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2215138719386413</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5145543660176917</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.074090869770457</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.340502187473215</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.202904412522979</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.41893389147438</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.04255045261886</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5935010942750921</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.7900059327416695</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2651751828572023</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>18,2%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,79%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>22,62%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 5,52</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 2,59</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 2,83</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 6,82</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 47,86</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-18,3; 20,23</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-19,78; 20,34</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 51,91</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.5122998692989461</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.3835439421587705</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.125845470709457</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.023116346015015</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.03680218140772447</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.02678606572246655</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.008149939552521012</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2001622413801419</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.490519842313554</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.535777273396602</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.465655495362954</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.433942675417603</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.2074653983561192</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2249026860474921</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1985662178618747</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.08572078414860022</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.067969386218847</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.707321306421592</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.579413730342404</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.163378461133046</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.3452917031654593</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2183881822756903</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1847830807708627</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5664716133584853</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
